--- a/Assets/06.Table/DaesanExchange.xlsx
+++ b/Assets/06.Table/DaesanExchange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3DB2AE-9B4D-48EC-97A5-39377D43D28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594BB270-3C64-4DF9-BBA0-FBC1AA4280D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DaesanExchange" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,14 @@
   </si>
   <si>
     <t>n일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchage_Daesan6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,9 +476,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -508,7 +516,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -614,7 +622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -756,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -764,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1047,28 +1055,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>9028</v>
+        <v>9050</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>3000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12">
         <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>2000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1076,25 +1084,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>9027</v>
+        <v>9028</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>2000</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1105,10 +1113,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>9017</v>
+        <v>9027</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1117,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F14">
         <v>2000</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1134,10 +1142,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1146,18 +1154,47 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>2000</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>9023</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>2000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/DaesanExchange.xlsx
+++ b/Assets/06.Table/DaesanExchange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594BB270-3C64-4DF9-BBA0-FBC1AA4280D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256614CC-29E3-4D8D-9649-000AE4277AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DaesanExchange" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1032,7 @@
         <v>9039</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>9050</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1090,7 +1090,7 @@
         <v>9028</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>9027</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>9017</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>9023</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>1</v>

--- a/Assets/06.Table/DaesanExchange.xlsx
+++ b/Assets/06.Table/DaesanExchange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256614CC-29E3-4D8D-9649-000AE4277AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E3E053-9013-43C7-8615-8E53B1074817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DaesanExchange" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
     <t>exchage_Daesan3</t>
   </si>
   <si>
-    <t>1. 길드 보상 측정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>콘텐츠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대산군 재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,19 +221,31 @@
     <t>exchage_Daesan5</t>
   </si>
   <si>
-    <t>하루 획득량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n일치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태극 영약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>exchage_Daesan6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 콘텐츠 보상 측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대산 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100만</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +779,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -825,7 +829,7 @@
         <v>9026</v>
       </c>
       <c r="C2">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -848,7 +852,7 @@
         <v>9016</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -871,7 +875,7 @@
         <v>9010</v>
       </c>
       <c r="C4">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -894,7 +898,7 @@
         <v>9008</v>
       </c>
       <c r="C5">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -917,7 +921,7 @@
         <v>9001</v>
       </c>
       <c r="C6">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -940,7 +944,7 @@
         <v>88</v>
       </c>
       <c r="C7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -963,7 +967,7 @@
         <v>73</v>
       </c>
       <c r="C8">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -986,7 +990,7 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1009,7 +1013,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1044,7 +1048,7 @@
         <v>5000</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1067,13 +1071,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>3000</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1102,7 +1106,7 @@
         <v>2000</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1154,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15">
         <v>2000</v>
@@ -1207,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1224,259 +1228,241 @@
     <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6">
-        <v>52200</v>
+        <v>150000</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D17" s="6">
         <v>100</v>
       </c>
       <c r="E17" s="6">
         <f>($C$8/D17)*C17</f>
-        <v>26100000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D18" s="6">
         <v>150</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" ref="E18:E25" si="0">($C$8/D18)*C18</f>
-        <v>3480000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="D19" s="6">
         <v>200</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>1827000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D20" s="6">
         <v>300</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>870000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D21" s="6">
         <v>400</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>652500</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D22" s="6">
         <v>500</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
-        <v>313200</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="D23" s="6">
         <v>1000</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>678600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>80000</v>
-      </c>
-      <c r="G23" s="3">
-        <f>E23/F23</f>
-        <v>8.4824999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+        <v>7500000</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D24" s="6">
         <v>1000</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>5220</v>
-      </c>
-      <c r="F24" s="3">
-        <v>660</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" ref="G24:G25" si="1">E24/F24</f>
-        <v>7.9090909090909092</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+        <v>150000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="D25" s="6">
         <v>1000</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>78300</v>
-      </c>
-      <c r="F25" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="1"/>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1500000</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" s="6">
         <f>D28*E28+D29*E29+D30*E30+D31*E31+D32*E32</f>
         <v>37000</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -1488,7 +1474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>19</v>
       </c>
@@ -1502,9 +1488,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -1516,9 +1502,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
@@ -1530,9 +1516,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
